--- a/määrittely.xlsx
+++ b/määrittely.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ittuki\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tuhoo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F810B6B-CE88-4581-A3A0-A37B7E433340}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kaavio1" sheetId="2" r:id="rId1"/>
     <sheet name="Taul1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_FilterDatabase" localSheetId="1" hidden="1">Taul1!$G$1:$H$51</definedName>
+    <definedName name="_FilterDatabase" localSheetId="1" hidden="1">Taul1!$G$1:$H$48</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Taul1!$G$1:$H$48</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>start nappula</t>
   </si>
@@ -57,9 +59,6 @@
     <t>controllit</t>
   </si>
   <si>
-    <t>gameplay</t>
-  </si>
-  <si>
     <t>other</t>
   </si>
   <si>
@@ -87,9 +86,6 @@
     <t>ääni efektit</t>
   </si>
   <si>
-    <t>visuaaliset efektit</t>
-  </si>
-  <si>
     <t>musiikki</t>
   </si>
   <si>
@@ -178,15 +174,31 @@
   </si>
   <si>
     <t>credits (ei raha)</t>
+  </si>
+  <si>
+    <t>MVP</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="72"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -201,7 +213,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -209,12 +221,160 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normaali" xfId="0" builtinId="0"/>
@@ -233,7 +393,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fi-FI"/>
   <c:roundedCorners val="0"/>
@@ -247,7 +407,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -299,132 +458,63 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Taul1!$G$1:$G$38</c:f>
+              <c:f>Taul1!$G$3:$G$35</c:f>
               <c:strCache>
-                <c:ptCount val="38"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
+                  <c:v>rottia</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>pelaajan liikkeet</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>rottien toiminnot</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>aseet</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>mapit</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>start nappula</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="6">
+                  <c:v>takaisin nappi</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>pelaajan animaatiot</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>asetukset </c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>asetukset </c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>vaikeustaso</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="9">
+                  <c:v>teema</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>main menu</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>eri powerupit</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>endless</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>levelup system</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>exit toiminto </c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>main menu</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Ääni asetukset</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>sliderit ääniasetuksille </c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>videoasetukset</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>controllit</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>gameplay</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>other</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>takaisin nappi</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>rottia</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>pelaaja hahmo</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>rotta animaatiot</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>rottien toiminnot</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>pelaajan animaatiot</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>aseet</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>aseen ampumisen ääniefekti</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>ääni efektit</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>kameran tärina</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>aseen ampumis visuaaliset efektit</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>visuaaliset efektit</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>musiikki</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>teema</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>pelaajan liikkeet</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>eri powerupit</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>shopit</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>eri rottia</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>eri aseita</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>bosseja</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>alkuanimaatio</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>endless</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>lopputekstit</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>credits (ei raha)</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>levelup system</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>mapit</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Taul1!$H$1:$H$34</c:f>
+              <c:f>Taul1!$H$1:$H$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -432,10 +522,10 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1</c:v>
@@ -444,13 +534,13 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>1</c:v>
@@ -459,7 +549,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>1</c:v>
@@ -468,68 +558,16 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="33">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-851A-44DF-BC7A-5B6DC6B2F039}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1235,10 +1273,10 @@
 </file>
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="95" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="173" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1249,10 +1287,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9294395" cy="6075947"/>
+    <xdr:ext cx="9299263" cy="6072876"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Kaavio 1"/>
+        <xdr:cNvPr id="2" name="Kaavio 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks noGrp="1"/>
         </xdr:cNvGraphicFramePr>
@@ -1534,11 +1578,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="G1:H51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="E1:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1546,129 +1591,171 @@
     <col min="7" max="7" width="53.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G1" t="s">
+    <row r="1" spans="5:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="12">
+        <v>1</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E2" s="6"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="12">
+        <v>1</v>
+      </c>
+      <c r="I2" s="8"/>
+    </row>
+    <row r="3" spans="5:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E3" s="2"/>
+      <c r="F3" s="1"/>
+      <c r="G3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>3</v>
+      </c>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="5:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E4" s="3"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="12">
+        <v>1</v>
+      </c>
+      <c r="I4" s="5"/>
+    </row>
+    <row r="5" spans="5:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E5" s="6"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="12">
+        <v>1</v>
+      </c>
+      <c r="I5" s="8"/>
+    </row>
+    <row r="6" spans="5:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E6" s="2"/>
+      <c r="F6" s="1"/>
+      <c r="G6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="5:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E7" s="2"/>
+      <c r="F7" s="1"/>
+      <c r="G7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="5:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E8" s="2"/>
+      <c r="F8" s="1"/>
+      <c r="G8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E9" s="9"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="12">
+        <v>1</v>
+      </c>
+      <c r="I9" s="11"/>
+    </row>
+    <row r="10" spans="5:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E10" s="2"/>
+      <c r="F10" s="1"/>
+      <c r="G10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10">
+        <v>3</v>
+      </c>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E11" s="3"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="12">
+        <v>1</v>
+      </c>
+      <c r="I11" s="5"/>
+    </row>
+    <row r="12" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E12" s="6"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="12">
+        <v>1</v>
+      </c>
+      <c r="I12" s="8"/>
+    </row>
+    <row r="13" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="G13" t="s">
         <v>0</v>
-      </c>
-      <c r="H1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G7" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G8" t="s">
-        <v>6</v>
-      </c>
-      <c r="H8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G10" t="s">
-        <v>8</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G11" t="s">
-        <v>9</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G13" t="s">
-        <v>11</v>
       </c>
       <c r="H13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="5:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="G14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="7:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="5:9" x14ac:dyDescent="0.25">
       <c r="G15" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H15">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="5:9" x14ac:dyDescent="0.25">
       <c r="G16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -1676,55 +1763,55 @@
     </row>
     <row r="17" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G17" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="H17">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="7:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="G18" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="H18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="7:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="7:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="G19" t="s">
         <v>17</v>
       </c>
       <c r="H19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="7:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="7:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="G20" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="7:8" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="7:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="G21" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="H21">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="7:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="G22" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="H22">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G23" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -1732,79 +1819,79 @@
     </row>
     <row r="24" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G24" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G25" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="H25">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="7:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="G26" t="s">
         <v>21</v>
       </c>
       <c r="H26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="7:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="7:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="G27" t="s">
         <v>22</v>
       </c>
       <c r="H27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="7:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="7:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="G28" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="H28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="7:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="7:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="G29" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H29">
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="7:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="G30" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G31" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="7:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="7:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="G32" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H32">
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="7:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="G33" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="H33">
         <v>3</v>
@@ -1820,142 +1907,129 @@
     </row>
     <row r="35" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G35" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G36" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="H36">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G37" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H37">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="7:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="G38" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="7:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="7:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="G39" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="7:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="7:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="G40" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="7:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="7:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="G41" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H41">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="7:8" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="7:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="G42" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H42">
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="7:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="G43" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="7:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G44" t="s">
+        <v>38</v>
+      </c>
+      <c r="H44">
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G44" t="s">
-        <v>37</v>
-      </c>
-      <c r="H44">
+    <row r="45" spans="7:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G45" t="s">
+        <v>39</v>
+      </c>
+      <c r="H45">
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G45" t="s">
-        <v>38</v>
-      </c>
-      <c r="H45">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="7:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="G46" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H46">
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="7:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="G47" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G48" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H48">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G49" t="s">
-        <v>42</v>
-      </c>
-      <c r="H49">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G50" t="s">
-        <v>47</v>
-      </c>
-      <c r="H50">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G51" t="s">
-        <v>48</v>
-      </c>
-      <c r="H51">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="G1:H51"/>
+  <autoFilter ref="G1:H48" xr:uid="{00000000-0009-0000-0000-000001000000}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="1"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <mergeCells count="3">
+    <mergeCell ref="F1:F12"/>
+    <mergeCell ref="E1:E12"/>
+    <mergeCell ref="I1:I12"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
